--- a/biology/Botanique/Notopleura/Notopleura.xlsx
+++ b/biology/Botanique/Notopleura/Notopleura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Notopleura est un genre de plantes de la famille des Rubiaceae[1]. Les végétaux de ce genre sont originaires des forêts tropicales et humides du continent américain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Notopleura est un genre de plantes de la famille des Rubiaceae. Les végétaux de ce genre sont originaires des forêts tropicales et humides du continent américain.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Notopleura compte 100 espèces de plantes qui sont généralement des arbustes, petits arbres ou des plantes grimpantes.
-Ses espèces sont soit des plantes directement au sol ou alors, elles sont épiphytes. Les plantes poussant directement au sol sont souvent non ramifiées, généralement dressées; les feuilles sont opposées et entières avec des stipules à appendice interpétiolaire succulent ou élargies en une lame membraneuse voir tout simplement absentes;  les inflorescences sont pseudo-axillaires; possédant 2 pyrènes[2]. Les plantes épiphytes sont le plus souvent ramifiées, généralement grimpantes; les feuilles sont opposées et entières avec stipules ayant un appendice interpétiolaire succulent voir absent;  les inflorescences sont terminales ou pseudo-axillaires; ayant 2 à 6 pyrènes. Les fleurs de toutes les espèces de ce genre sont blanches et chaque fleur est constituée d'un style mises à part certaines espèces qui sont distyles c'est-à-dire possédant 2 styles.
+Ses espèces sont soit des plantes directement au sol ou alors, elles sont épiphytes. Les plantes poussant directement au sol sont souvent non ramifiées, généralement dressées; les feuilles sont opposées et entières avec des stipules à appendice interpétiolaire succulent ou élargies en une lame membraneuse voir tout simplement absentes;  les inflorescences sont pseudo-axillaires; possédant 2 pyrènes. Les plantes épiphytes sont le plus souvent ramifiées, généralement grimpantes; les feuilles sont opposées et entières avec stipules ayant un appendice interpétiolaire succulent voir absent;  les inflorescences sont terminales ou pseudo-axillaires; ayant 2 à 6 pyrènes. Les fleurs de toutes les espèces de ce genre sont blanches et chaque fleur est constituée d'un style mises à part certaines espèces qui sont distyles c'est-à-dire possédant 2 styles.
 Ces plantes sont souvent charnues voir succulentes.
 Les fruits sont blancs, orange, rouges et plus rarement noirs. De plus, ils sont apparemment propagés par les oiseaux.
 </t>
@@ -545,9 +559,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Notopleura est originaire des forêts tropicales et humides d'Amérique. Les espèces de ce genre vivent de la basse à haute altitude. Quelques-unes de ses espèces ont été introduites avec succès dans certains pays d'Afrique et d'Océanie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Notopleura est originaire des forêts tropicales et humides d'Amérique. Les espèces de ce genre vivent de la basse à haute altitude. Quelques-unes de ses espèces ont été introduites avec succès dans certains pays d'Afrique et d'Océanie.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Sous-genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le genre Notopleura est divisé en 2 sous-genres :
 Notopleura ssbg. Notopleura qui reprend la majeure partie des espèces et qui sont des espèces poussant directement au sol.
@@ -608,7 +626,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Notopleura acuta
